--- a/data/source/michigan_2019.xlsx
+++ b/data/source/michigan_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aljas\Documents\Juvenile-lifers-\data\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F629BE3E-FD92-4D23-8904-663A0116B98B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDDC845-C638-44BF-BE6B-975BD971E7C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{04651EF7-5C02-4CA0-838F-9AC50641AAA6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3447" uniqueCount="865">
   <si>
     <t>dc_number</t>
   </si>
@@ -3215,7 +3215,7 @@
   <dimension ref="A1:W369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15578,9 +15578,7 @@
       <c r="J184" s="52">
         <v>35769</v>
       </c>
-      <c r="K184" s="52" t="s">
-        <v>400</v>
-      </c>
+      <c r="K184" s="52"/>
       <c r="L184" s="53"/>
       <c r="M184" s="54" t="s">
         <v>53</v>

--- a/data/source/michigan_2019.xlsx
+++ b/data/source/michigan_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raljas/Desktop/Juvenile-lifers-/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A5B03-74B9-D740-B02D-7B344F77B2DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D635B8FE-3D02-CE42-B532-A874D24CCB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{04651EF7-5C02-4CA0-838F-9AC50641AAA6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{04651EF7-5C02-4CA0-838F-9AC50641AAA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3230,10 +3230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495545EA-B434-4F17-82FD-39EF57BEF991}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="U376" sqref="U376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3313,7 +3314,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>282369</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>165621</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>201967</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>202098</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>289128</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>253032</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>196334</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>191260</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>217709</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>236945</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>247052</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>219445</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>248666</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>598119</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>234312</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>237818</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>130610</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>253128</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>254039</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>225772</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>241473</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>266834</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>499201</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>413732</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>227632</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>191796</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>240859</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>239128</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>240025</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>251328</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>212651</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>214987</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>224281</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>271856</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>226959</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>244441</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>165805</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>709776</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>195446</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>316488</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>192593</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>211805</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>244440</v>
       </c>
@@ -6228,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>203339</v>
       </c>
@@ -6297,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>235621</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>225620</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>233982</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>358745</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>226609</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>206186</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>204177</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>165630</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>201982</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>189947</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>248773</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>196753</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>236849</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>465435</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>387044</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>318791</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>417328</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>432591</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>251469</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>195492</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>200324</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>211016</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>169059</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>174162</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>192749</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>190780</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>190283</v>
       </c>
@@ -8130,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>158292</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>952390</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>231449</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>234255</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>228183</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>222691</v>
       </c>
@@ -8536,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>186412</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>185506</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>217711</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>248894</v>
       </c>
@@ -8808,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>246127</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>248519</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>292523</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>256960</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>618415</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>191849</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>511663</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>366059</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>732378</v>
       </c>
@@ -9397,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>225001</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>242223</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>401181</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>219346</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>237168</v>
       </c>
@@ -9734,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>622683</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>228758</v>
       </c>
@@ -9870,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>217805</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>177717</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>184668</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31">
         <v>372350</v>
       </c>
@@ -10138,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>271014</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>630831</v>
       </c>
@@ -10268,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>217645</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>247481</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>193092</v>
       </c>
@@ -10467,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>225535</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>209476</v>
       </c>
@@ -10603,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>165623</v>
       </c>
@@ -10672,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>178139</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>172682</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>241559</v>
       </c>
@@ -10875,7 +10876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>179512</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>170197</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>169371</v>
       </c>
@@ -11082,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>252582</v>
       </c>
@@ -11149,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>230698</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>254416</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>379382</v>
       </c>
@@ -11344,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>252159</v>
       </c>
@@ -11409,7 +11410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>216306</v>
       </c>
@@ -11474,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>188620</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>195505</v>
       </c>
@@ -11612,7 +11613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>189585</v>
       </c>
@@ -11677,7 +11678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>325887</v>
       </c>
@@ -11742,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>325889</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>228465</v>
       </c>
@@ -11872,7 +11873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>252581</v>
       </c>
@@ -11937,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>179886</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>237921</v>
       </c>
@@ -12073,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>158315</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>169370</v>
       </c>
@@ -12211,7 +12212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>213025</v>
       </c>
@@ -12276,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>196785</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>176620</v>
       </c>
@@ -12414,7 +12415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>184895</v>
       </c>
@@ -12479,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>145940</v>
       </c>
@@ -12548,7 +12549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>150202</v>
       </c>
@@ -12617,7 +12618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>142565</v>
       </c>
@@ -12686,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>168355</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>250984</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>110882</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>141545</v>
       </c>
@@ -12958,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>144373</v>
       </c>
@@ -13027,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>238711</v>
       </c>
@@ -13092,7 +13093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>143039</v>
       </c>
@@ -13161,7 +13162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>235827</v>
       </c>
@@ -13226,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>150428</v>
       </c>
@@ -13295,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>120523</v>
       </c>
@@ -13364,7 +13365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>492983</v>
       </c>
@@ -13429,7 +13430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>155090</v>
       </c>
@@ -13496,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>303575</v>
       </c>
@@ -13561,7 +13562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>379111</v>
       </c>
@@ -13626,7 +13627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>149775</v>
       </c>
@@ -13691,7 +13692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>155318</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>175541</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>141234</v>
       </c>
@@ -13894,7 +13895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>108969</v>
       </c>
@@ -13961,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>176424</v>
       </c>
@@ -14028,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>164006</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>223445</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>119184</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>650657</v>
       </c>
@@ -14300,7 +14301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>474035</v>
       </c>
@@ -14365,7 +14366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>141099</v>
       </c>
@@ -14432,7 +14433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>173681</v>
       </c>
@@ -14499,7 +14500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>123268</v>
       </c>
@@ -14562,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>741357</v>
       </c>
@@ -14631,7 +14632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>814780</v>
       </c>
@@ -14700,7 +14701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>783743</v>
       </c>
@@ -14767,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>791561</v>
       </c>
@@ -14834,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>804089</v>
       </c>
@@ -14903,7 +14904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>177824</v>
       </c>
@@ -14972,7 +14973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>134186</v>
       </c>
@@ -15039,7 +15040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>218771</v>
       </c>
@@ -15108,7 +15109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>265328</v>
       </c>
@@ -15175,7 +15176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>279609</v>
       </c>
@@ -15240,7 +15241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>238588</v>
       </c>
@@ -15305,7 +15306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>261275</v>
       </c>
@@ -15370,7 +15371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>165840</v>
       </c>
@@ -15435,7 +15436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>304730</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>592689</v>
       </c>
@@ -15565,7 +15566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="48">
         <v>260818</v>
       </c>
@@ -15624,7 +15625,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="48">
         <v>246866</v>
       </c>
@@ -15683,7 +15684,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="48">
         <v>687791</v>
       </c>
@@ -15742,7 +15743,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="48">
         <v>231312</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="48">
         <v>260916</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="48">
         <v>203116</v>
       </c>
@@ -15919,7 +15920,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="48">
         <v>260917</v>
       </c>
@@ -15978,7 +15979,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="48">
         <v>796157</v>
       </c>
@@ -16037,7 +16038,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="48">
         <v>190660</v>
       </c>
@@ -16096,7 +16097,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="48">
         <v>259094</v>
       </c>
@@ -16155,7 +16156,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="48">
         <v>256195</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="48">
         <v>220523</v>
       </c>
@@ -16273,7 +16274,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="48">
         <v>223332</v>
       </c>
@@ -16332,7 +16333,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="48">
         <v>243169</v>
       </c>
@@ -16391,7 +16392,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="48">
         <v>297874</v>
       </c>
@@ -16450,7 +16451,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="48">
         <v>254637</v>
       </c>
@@ -16509,7 +16510,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="48">
         <v>261367</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="48">
         <v>293586</v>
       </c>
@@ -16627,7 +16628,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="48">
         <v>264578</v>
       </c>
@@ -16686,7 +16687,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="48">
         <v>270103</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="48">
         <v>260107</v>
       </c>
@@ -16804,7 +16805,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="48">
         <v>266511</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="48">
         <v>940418</v>
       </c>
@@ -16922,7 +16923,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="48">
         <v>235019</v>
       </c>
@@ -16981,7 +16982,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="48">
         <v>235021</v>
       </c>
@@ -17040,7 +17041,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="48">
         <v>302122</v>
       </c>
@@ -17099,7 +17100,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="48">
         <v>652228</v>
       </c>
@@ -17158,7 +17159,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="48">
         <v>253728</v>
       </c>
@@ -17217,7 +17218,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="48">
         <v>386035</v>
       </c>
@@ -17276,7 +17277,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="48">
         <v>175566</v>
       </c>
@@ -17335,7 +17336,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="48">
         <v>203782</v>
       </c>
@@ -17394,7 +17395,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="48">
         <v>316482</v>
       </c>
@@ -17453,7 +17454,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="48">
         <v>165683</v>
       </c>
@@ -17512,7 +17513,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="48">
         <v>189283</v>
       </c>
@@ -17571,7 +17572,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="48">
         <v>207286</v>
       </c>
@@ -17630,7 +17631,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="48">
         <v>807416</v>
       </c>
@@ -17689,7 +17690,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="48">
         <v>179552</v>
       </c>
@@ -17748,7 +17749,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="48">
         <v>252806</v>
       </c>
@@ -17807,7 +17808,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="48">
         <v>211512</v>
       </c>
@@ -17866,7 +17867,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="48">
         <v>234427</v>
       </c>
@@ -17925,7 +17926,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="48">
         <v>692728</v>
       </c>
@@ -17984,7 +17985,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="48">
         <v>785056</v>
       </c>
@@ -18043,7 +18044,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="48">
         <v>949384</v>
       </c>
@@ -18102,7 +18103,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="48">
         <v>221288</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="48">
         <v>656895</v>
       </c>
@@ -18220,7 +18221,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="48">
         <v>790800</v>
       </c>
@@ -18279,7 +18280,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="48">
         <v>485040</v>
       </c>
@@ -18338,7 +18339,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="48">
         <v>195160</v>
       </c>
@@ -18397,7 +18398,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="48">
         <v>250980</v>
       </c>
@@ -18456,7 +18457,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="48">
         <v>320502</v>
       </c>
@@ -18515,7 +18516,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="48">
         <v>599905</v>
       </c>
@@ -18574,7 +18575,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="48">
         <v>182117</v>
       </c>
@@ -18633,7 +18634,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="48">
         <v>618518</v>
       </c>
@@ -18692,7 +18693,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="48">
         <v>237761</v>
       </c>
@@ -18751,7 +18752,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="48">
         <v>224587</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="48">
         <v>174785</v>
       </c>
@@ -18869,7 +18870,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="48">
         <v>384572</v>
       </c>
@@ -18928,7 +18929,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="48">
         <v>201907</v>
       </c>
@@ -18987,7 +18988,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="48">
         <v>166007</v>
       </c>
@@ -19046,7 +19047,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="48">
         <v>370249</v>
       </c>
@@ -19105,7 +19106,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="48">
         <v>165773</v>
       </c>
@@ -19164,7 +19165,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="48">
         <v>217778</v>
       </c>
@@ -19223,7 +19224,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="48">
         <v>265390</v>
       </c>
@@ -19282,7 +19283,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="48">
         <v>375597</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="48">
         <v>244601</v>
       </c>
@@ -19400,7 +19401,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="48">
         <v>232703</v>
       </c>
@@ -19459,7 +19460,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="48">
         <v>163803</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="48">
         <v>876508</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="48">
         <v>249210</v>
       </c>
@@ -19636,7 +19637,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="48">
         <v>225614</v>
       </c>
@@ -19695,7 +19696,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="48">
         <v>209814</v>
       </c>
@@ -19754,7 +19755,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="48">
         <v>250616</v>
       </c>
@@ -19813,7 +19814,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="48">
         <v>201721</v>
       </c>
@@ -19872,7 +19873,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="48">
         <v>170722</v>
       </c>
@@ -19931,7 +19932,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="48">
         <v>169924</v>
       </c>
@@ -19990,7 +19991,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="48">
         <v>247926</v>
       </c>
@@ -20049,7 +20050,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="48">
         <v>788526</v>
       </c>
@@ -20108,7 +20109,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="48">
         <v>251228</v>
       </c>
@@ -20167,7 +20168,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="48">
         <v>251329</v>
       </c>
@@ -20226,7 +20227,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="48">
         <v>141233</v>
       </c>
@@ -20285,7 +20286,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="48">
         <v>198334</v>
       </c>
@@ -20344,7 +20345,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="48">
         <v>128535</v>
       </c>
@@ -20403,7 +20404,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="48">
         <v>190739</v>
       </c>
@@ -20462,7 +20463,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="48">
         <v>308045</v>
       </c>
@@ -20521,7 +20522,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="48">
         <v>138245</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="48">
         <v>459953</v>
       </c>
@@ -20639,7 +20640,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="48">
         <v>194057</v>
       </c>
@@ -20698,7 +20699,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="48">
         <v>403858</v>
       </c>
@@ -20757,7 +20758,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="48">
         <v>313560</v>
       </c>
@@ -20816,7 +20817,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="48">
         <v>208665</v>
       </c>
@@ -20875,7 +20876,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="48">
         <v>868066</v>
       </c>
@@ -20934,7 +20935,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="48">
         <v>208666</v>
       </c>
@@ -20993,7 +20994,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="48">
         <v>595067</v>
       </c>
@@ -21052,7 +21053,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="48">
         <v>265168</v>
       </c>
@@ -21111,7 +21112,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="48">
         <v>208373</v>
       </c>
@@ -21170,7 +21171,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="48">
         <v>211683</v>
       </c>
@@ -21229,7 +21230,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="48">
         <v>625984</v>
       </c>
@@ -21288,7 +21289,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="48">
         <v>487692</v>
       </c>
@@ -21347,7 +21348,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="48">
         <v>748594</v>
       </c>
@@ -21406,7 +21407,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="48">
         <v>931296</v>
       </c>
@@ -21465,7 +21466,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="48">
         <v>257297</v>
       </c>
@@ -21524,7 +21525,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="48">
         <v>162008</v>
       </c>
@@ -21583,7 +21584,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="48">
         <v>252622</v>
       </c>
@@ -21642,7 +21643,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="48">
         <v>283528</v>
       </c>
@@ -21701,7 +21702,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="48">
         <v>233439</v>
       </c>
@@ -21760,7 +21761,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="48">
         <v>179842</v>
       </c>
@@ -21819,7 +21820,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="48">
         <v>211451</v>
       </c>
@@ -21878,7 +21879,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="48">
         <v>260160</v>
       </c>
@@ -21937,7 +21938,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="48">
         <v>182264</v>
       </c>
@@ -21996,7 +21997,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="48">
         <v>685577</v>
       </c>
@@ -22055,7 +22056,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="48">
         <v>274787</v>
       </c>
@@ -22114,7 +22115,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="48">
         <v>240689</v>
       </c>
@@ -22173,7 +22174,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="48">
         <v>243189</v>
       </c>
@@ -22232,7 +22233,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="48">
         <v>288794</v>
       </c>
@@ -22291,7 +22292,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="48">
         <v>184214</v>
       </c>
@@ -22350,7 +22351,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="48">
         <v>129034</v>
       </c>
@@ -22409,7 +22410,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="48">
         <v>278182</v>
       </c>
@@ -22468,7 +22469,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="48">
         <v>623369</v>
       </c>
@@ -22527,7 +22528,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="48">
         <v>171785</v>
       </c>
@@ -22586,7 +22587,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="48">
         <v>594095</v>
       </c>
@@ -22645,7 +22646,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="48">
         <v>166420</v>
       </c>
@@ -22704,7 +22705,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="48">
         <v>270321</v>
       </c>
@@ -22763,7 +22764,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="48">
         <v>166300</v>
       </c>
@@ -22822,7 +22823,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="48">
         <v>236302</v>
       </c>
@@ -22881,7 +22882,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="48">
         <v>236305</v>
       </c>
@@ -22940,7 +22941,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="48">
         <v>167106</v>
       </c>
@@ -22999,7 +23000,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="48">
         <v>150709</v>
       </c>
@@ -23058,7 +23059,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="48">
         <v>192009</v>
       </c>
@@ -23117,7 +23118,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="48">
         <v>665309</v>
       </c>
@@ -23176,7 +23177,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="48">
         <v>615809</v>
       </c>
@@ -23235,7 +23236,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="48">
         <v>234311</v>
       </c>
@@ -23294,7 +23295,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="48">
         <v>650315</v>
       </c>
@@ -23353,7 +23354,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="48">
         <v>468515</v>
       </c>
@@ -23412,7 +23413,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="48">
         <v>869215</v>
       </c>
@@ -23471,7 +23472,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="48">
         <v>744816</v>
       </c>
@@ -23530,7 +23531,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="48">
         <v>492717</v>
       </c>
@@ -23589,7 +23590,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="48">
         <v>182623</v>
       </c>
@@ -23648,7 +23649,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="48">
         <v>233924</v>
       </c>
@@ -23707,7 +23708,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="48">
         <v>270825</v>
       </c>
@@ -23766,7 +23767,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="48">
         <v>209927</v>
       </c>
@@ -23825,7 +23826,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="48">
         <v>660230</v>
       </c>
@@ -23884,7 +23885,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="48">
         <v>217934</v>
       </c>
@@ -23943,7 +23944,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="48">
         <v>170935</v>
       </c>
@@ -24002,7 +24003,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="48">
         <v>793937</v>
       </c>
@@ -24061,7 +24062,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="48">
         <v>239339</v>
       </c>
@@ -24120,7 +24121,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="48">
         <v>659241</v>
       </c>
@@ -24179,7 +24180,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="48">
         <v>162243</v>
       </c>
@@ -24285,7 +24286,7 @@
         <v>34348</v>
       </c>
       <c r="T331" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="U331" s="17" t="s">
         <v>29</v>
@@ -24297,7 +24298,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="48">
         <v>201545</v>
       </c>
@@ -24356,7 +24357,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="48">
         <v>316846</v>
       </c>
@@ -24415,7 +24416,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="48">
         <v>168548</v>
       </c>
@@ -24474,7 +24475,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="48">
         <v>150249</v>
       </c>
@@ -24533,7 +24534,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="48">
         <v>168550</v>
       </c>
@@ -24592,7 +24593,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="48">
         <v>165751</v>
       </c>
@@ -24651,7 +24652,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="48">
         <v>277651</v>
       </c>
@@ -24710,7 +24711,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="48">
         <v>168552</v>
       </c>
@@ -24769,7 +24770,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="48">
         <v>225054</v>
       </c>
@@ -24828,7 +24829,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="48">
         <v>372355</v>
       </c>
@@ -24887,7 +24888,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="48">
         <v>252358</v>
       </c>
@@ -24946,7 +24947,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="48">
         <v>705258</v>
       </c>
@@ -25005,7 +25006,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="48">
         <v>258660</v>
       </c>
@@ -25064,7 +25065,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="48">
         <v>424363</v>
       </c>
@@ -25123,7 +25124,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="48">
         <v>240464</v>
       </c>
@@ -25182,7 +25183,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="48">
         <v>423065</v>
       </c>
@@ -25241,7 +25242,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="48">
         <v>409968</v>
       </c>
@@ -25300,7 +25301,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="48">
         <v>687570</v>
       </c>
@@ -25359,7 +25360,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="48">
         <v>221171</v>
       </c>
@@ -25418,7 +25419,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="48">
         <v>831271</v>
       </c>
@@ -25477,7 +25478,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="48">
         <v>244473</v>
       </c>
@@ -25536,7 +25537,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="48">
         <v>146778</v>
       </c>
@@ -25595,7 +25596,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="48">
         <v>137278</v>
       </c>
@@ -25654,7 +25655,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="48">
         <v>208079</v>
       </c>
@@ -25713,7 +25714,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="48">
         <v>516680</v>
       </c>
@@ -25772,7 +25773,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="48">
         <v>190782</v>
       </c>
@@ -25831,7 +25832,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="48">
         <v>214984</v>
       </c>
@@ -25890,7 +25891,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="48">
         <v>182685</v>
       </c>
@@ -25949,7 +25950,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="48">
         <v>186487</v>
       </c>
@@ -26008,7 +26009,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="48">
         <v>857789</v>
       </c>
@@ -26067,7 +26068,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="48">
         <v>270992</v>
       </c>
@@ -26126,7 +26127,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="48">
         <v>503492</v>
       </c>
@@ -26185,7 +26186,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="48">
         <v>294293</v>
       </c>
@@ -26244,7 +26245,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:23" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="48">
         <v>791795</v>
       </c>
@@ -26303,7 +26304,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="48">
         <v>324495</v>
       </c>
@@ -26362,7 +26363,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="48">
         <v>410196</v>
       </c>
@@ -26421,7 +26422,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="48">
         <v>283097</v>
       </c>
@@ -26480,7 +26481,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:23" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="48">
         <v>149597</v>
       </c>
@@ -26541,6 +26542,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W369" xr:uid="{46152418-B5E8-B746-BF6A-AF54BF0C5916}">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:W369">
       <sortCondition ref="L1:L369"/>
     </sortState>
